--- a/static/output/Excel/LRamounts-template.xlsx
+++ b/static/output/Excel/LRamounts-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE19E9-F732-4DEA-A705-8D5DE4909E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3236BF-8D8A-1744-AF80-034A670A3865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="WPI" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="60">
   <si>
     <t>Cumulative amounts</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>forecast</t>
-  </si>
-  <si>
-    <t>Outsanding</t>
   </si>
   <si>
     <t>liabilities</t>
@@ -231,16 +228,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -338,14 +335,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -354,30 +351,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -386,7 +383,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,7 +391,7 @@
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,7 +409,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1772,14 +1769,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>40330</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>40422</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>1.282</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>40513</v>
       </c>
@@ -1803,7 +1800,7 @@
         <v>1.2689999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>40603</v>
       </c>
@@ -1811,7 +1808,7 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>40695</v>
       </c>
@@ -1819,7 +1816,7 @@
         <v>1.2490000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>40787</v>
       </c>
@@ -1827,7 +1824,7 @@
         <v>1.2390000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>40878</v>
       </c>
@@ -1835,7 +1832,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>40969</v>
       </c>
@@ -1843,7 +1840,7 @@
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>41061</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>1.204</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>41153</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>41244</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>1.1859999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>41334</v>
       </c>
@@ -1875,7 +1872,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>41426</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>41518</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>1.1639999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>41609</v>
       </c>
@@ -1899,7 +1896,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>41699</v>
       </c>
@@ -1907,7 +1904,7 @@
         <v>1.1459999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>41791</v>
       </c>
@@ -1915,7 +1912,7 @@
         <v>1.141</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>41883</v>
       </c>
@@ -1923,7 +1920,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>41974</v>
       </c>
@@ -1931,7 +1928,7 @@
         <v>1.127</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>42064</v>
       </c>
@@ -1939,7 +1936,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>42156</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>42248</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>42339</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>42430</v>
       </c>
@@ -1971,7 +1968,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>42522</v>
       </c>
@@ -1979,7 +1976,7 @@
         <v>1.0920000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>42614</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>42705</v>
       </c>
@@ -1995,7 +1992,7 @@
         <v>1.0820000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>42795</v>
       </c>
@@ -2003,7 +2000,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>42887</v>
       </c>
@@ -2011,7 +2008,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>42979</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>43070</v>
       </c>
@@ -2027,7 +2024,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>43160</v>
       </c>
@@ -2035,7 +2032,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>43252</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>43344</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>43435</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>1.034</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>43525</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>1.0289999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>43617</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>43709</v>
       </c>
@@ -2083,7 +2080,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>43800</v>
       </c>
@@ -2091,7 +2088,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>43891</v>
       </c>
@@ -2099,7 +2096,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>43983</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>44075</v>
       </c>
@@ -2115,7 +2112,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>44166</v>
       </c>
@@ -2123,57 +2120,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44256</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44348</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>44440</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>44531</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>44621</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>44713</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>44805</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>44896</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>44986</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>45078</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2191,22 +2188,22 @@
       <selection activeCell="B46" sqref="B46:K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="11" width="11.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="11" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -2253,7 +2250,7 @@
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -2268,7 +2265,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
@@ -2283,7 +2280,7 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
@@ -2298,7 +2295,7 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
@@ -2313,7 +2310,7 @@
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -2328,7 +2325,7 @@
       <c r="J9"/>
       <c r="K9"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
@@ -2343,7 +2340,7 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
@@ -2358,7 +2355,7 @@
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -2373,7 +2370,7 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -2388,12 +2385,12 @@
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5">
         <v>0</v>
@@ -2426,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2010</v>
       </c>
@@ -2441,7 +2438,7 @@
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2011</v>
       </c>
@@ -2456,7 +2453,7 @@
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2012</v>
       </c>
@@ -2471,7 +2468,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2013</v>
       </c>
@@ -2486,7 +2483,7 @@
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -2501,7 +2498,7 @@
       <c r="J22"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -2516,7 +2513,7 @@
       <c r="J23"/>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -2531,7 +2528,7 @@
       <c r="J24"/>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2017</v>
       </c>
@@ -2546,7 +2543,7 @@
       <c r="J25"/>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2018</v>
       </c>
@@ -2561,7 +2558,7 @@
       <c r="J26"/>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2019</v>
       </c>
@@ -2576,7 +2573,7 @@
       <c r="J27"/>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -2588,12 +2585,12 @@
       <c r="J28"/>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="5">
         <v>0</v>
@@ -2626,7 +2623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2010</v>
       </c>
@@ -2641,7 +2638,7 @@
       <c r="J32"/>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2011</v>
       </c>
@@ -2656,7 +2653,7 @@
       <c r="J33"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2012</v>
       </c>
@@ -2671,7 +2668,7 @@
       <c r="J34"/>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2013</v>
       </c>
@@ -2686,7 +2683,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2014</v>
       </c>
@@ -2701,7 +2698,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2015</v>
       </c>
@@ -2716,7 +2713,7 @@
       <c r="J37"/>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2016</v>
       </c>
@@ -2731,7 +2728,7 @@
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2017</v>
       </c>
@@ -2746,7 +2743,7 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2018</v>
       </c>
@@ -2761,7 +2758,7 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -2776,12 +2773,12 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="5">
         <v>0</v>
@@ -2814,7 +2811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2010</v>
       </c>
@@ -2829,7 +2826,7 @@
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2011</v>
       </c>
@@ -2844,7 +2841,7 @@
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2012</v>
       </c>
@@ -2859,7 +2856,7 @@
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2013</v>
       </c>
@@ -2874,7 +2871,7 @@
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2014</v>
       </c>
@@ -2889,7 +2886,7 @@
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2015</v>
       </c>
@@ -2904,7 +2901,7 @@
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2016</v>
       </c>
@@ -2919,7 +2916,7 @@
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2017</v>
       </c>
@@ -2934,7 +2931,7 @@
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2018</v>
       </c>
@@ -2949,7 +2946,7 @@
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2019</v>
       </c>
@@ -2964,7 +2961,7 @@
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -2976,7 +2973,7 @@
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -2997,24 +2994,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C59E9E-57A6-C84D-80FB-E1089F2BA07E}">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
     <col min="3" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="C3" s="5">
         <v>0</v>
@@ -3047,7 +3044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -3062,7 +3059,7 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -3077,7 +3074,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
@@ -3092,7 +3089,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
@@ -3107,7 +3104,7 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
@@ -3122,7 +3119,7 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -3137,7 +3134,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
@@ -3152,7 +3149,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
@@ -3167,7 +3164,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -3182,7 +3179,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -3197,12 +3194,12 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="C17" s="5">
         <v>0</v>
@@ -3233,7 +3230,7 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2010</v>
       </c>
@@ -3248,7 +3245,7 @@
       <c r="K18"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2011</v>
       </c>
@@ -3263,7 +3260,7 @@
       <c r="K19"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2012</v>
       </c>
@@ -3278,7 +3275,7 @@
       <c r="K20"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2013</v>
       </c>
@@ -3293,7 +3290,7 @@
       <c r="K21"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -3308,7 +3305,7 @@
       <c r="K22"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -3323,7 +3320,7 @@
       <c r="K23"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -3338,7 +3335,7 @@
       <c r="K24"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2017</v>
       </c>
@@ -3353,7 +3350,7 @@
       <c r="K25"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2018</v>
       </c>
@@ -3368,7 +3365,7 @@
       <c r="K26"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="3"/>
@@ -3397,7 +3394,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -3423,7 +3420,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -3438,7 +3435,7 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -3453,15 +3450,15 @@
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -3494,7 +3491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2010</v>
       </c>
@@ -3513,7 +3510,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2011</v>
       </c>
@@ -3532,7 +3529,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2012</v>
       </c>
@@ -3551,7 +3548,7 @@
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2013</v>
       </c>
@@ -3570,7 +3567,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2014</v>
       </c>
@@ -3589,7 +3586,7 @@
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2015</v>
       </c>
@@ -3608,7 +3605,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2016</v>
       </c>
@@ -3627,7 +3624,7 @@
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2017</v>
       </c>
@@ -3646,7 +3643,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2018</v>
       </c>
@@ -3665,7 +3662,7 @@
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2019</v>
       </c>
@@ -3684,7 +3681,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
       <c r="C49"/>
@@ -3698,7 +3695,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
@@ -3712,12 +3709,12 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="C54" s="5">
         <v>0</v>
@@ -3750,7 +3747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2010</v>
       </c>
@@ -3765,7 +3762,7 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2011</v>
       </c>
@@ -3780,7 +3777,7 @@
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2012</v>
       </c>
@@ -3795,7 +3792,7 @@
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2013</v>
       </c>
@@ -3810,7 +3807,7 @@
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2014</v>
       </c>
@@ -3825,7 +3822,7 @@
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2015</v>
       </c>
@@ -3840,7 +3837,7 @@
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2016</v>
       </c>
@@ -3855,7 +3852,7 @@
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2017</v>
       </c>
@@ -3870,7 +3867,7 @@
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2018</v>
       </c>
@@ -3885,7 +3882,7 @@
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2019</v>
       </c>
@@ -3900,12 +3897,12 @@
       <c r="K64"/>
       <c r="L64"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="C68" s="5">
         <v>0</v>
@@ -3936,7 +3933,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2010</v>
       </c>
@@ -3951,7 +3948,7 @@
       <c r="K69"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2011</v>
       </c>
@@ -3966,7 +3963,7 @@
       <c r="K70"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2012</v>
       </c>
@@ -3981,7 +3978,7 @@
       <c r="K71"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2013</v>
       </c>
@@ -3996,7 +3993,7 @@
       <c r="K72"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2014</v>
       </c>
@@ -4011,7 +4008,7 @@
       <c r="K73"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2015</v>
       </c>
@@ -4026,7 +4023,7 @@
       <c r="K74"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2016</v>
       </c>
@@ -4041,7 +4038,7 @@
       <c r="K75"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2017</v>
       </c>
@@ -4056,7 +4053,7 @@
       <c r="K76"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2018</v>
       </c>
@@ -4071,7 +4068,7 @@
       <c r="K77"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="C78" s="8"/>
       <c r="D78" s="3"/>
@@ -4084,7 +4081,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -4099,9 +4096,9 @@
       <c r="K79"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -4114,7 +4111,7 @@
       <c r="K80"/>
       <c r="L80"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -4129,7 +4126,7 @@
       <c r="K81"/>
       <c r="L81"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
@@ -4141,7 +4138,7 @@
       <c r="K82"/>
       <c r="L82"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -4156,7 +4153,7 @@
       <c r="K83"/>
       <c r="L83"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -4171,7 +4168,7 @@
       <c r="K84"/>
       <c r="L84"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
@@ -4183,21 +4180,21 @@
       <c r="K85"/>
       <c r="L85"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="15">
         <v>0.04</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="C89" s="5">
         <v>0</v>
@@ -4230,7 +4227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -4247,7 +4244,7 @@
       <c r="M90"/>
       <c r="N90"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2011</v>
       </c>
@@ -4264,7 +4261,7 @@
       <c r="M91"/>
       <c r="N91"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2012</v>
       </c>
@@ -4281,7 +4278,7 @@
       <c r="M92"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2013</v>
       </c>
@@ -4298,7 +4295,7 @@
       <c r="M93"/>
       <c r="N93"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2014</v>
       </c>
@@ -4315,7 +4312,7 @@
       <c r="M94"/>
       <c r="N94"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2015</v>
       </c>
@@ -4332,7 +4329,7 @@
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2016</v>
       </c>
@@ -4349,7 +4346,7 @@
       <c r="M96"/>
       <c r="N96"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2017</v>
       </c>
@@ -4366,7 +4363,7 @@
       <c r="M97"/>
       <c r="N97"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2018</v>
       </c>
@@ -4383,7 +4380,7 @@
       <c r="M98"/>
       <c r="N98"/>
     </row>
-    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2019</v>
       </c>
@@ -4400,7 +4397,7 @@
       <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
@@ -4414,7 +4411,7 @@
       <c r="M100"/>
       <c r="N100"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
@@ -4428,7 +4425,7 @@
       <c r="M101"/>
       <c r="N101"/>
     </row>
-    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102"/>
@@ -4442,7 +4439,7 @@
       <c r="M102"/>
       <c r="N102"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103"/>
@@ -4456,18 +4453,18 @@
       <c r="M103"/>
       <c r="N103"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C107" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="35"/>
       <c r="F107" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G107" s="35"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>13</v>
       </c>
@@ -4478,16 +4475,16 @@
         <v>18</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>14</v>
       </c>
@@ -4498,16 +4495,16 @@
         <v>19</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -4518,7 +4515,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2011</v>
       </c>
@@ -4529,7 +4526,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2012</v>
       </c>
@@ -4540,7 +4537,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2013</v>
       </c>
@@ -4551,7 +4548,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2014</v>
       </c>
@@ -4562,7 +4559,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2015</v>
       </c>
@@ -4573,7 +4570,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2016</v>
       </c>
@@ -4584,7 +4581,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2017</v>
       </c>
@@ -4595,7 +4592,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2018</v>
       </c>
@@ -4606,7 +4603,7 @@
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2019</v>
       </c>
@@ -4617,20 +4614,20 @@
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
     </row>
-    <row r="121" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D121" s="13"/>
       <c r="E121" s="26"/>
       <c r="F121" s="13"/>
       <c r="G121" s="26"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C107:E107"/>
@@ -4645,23 +4642,23 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:H121"/>
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
     <col min="3" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="C3" s="5">
         <v>0</v>
@@ -4694,7 +4691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -4709,7 +4706,7 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -4724,7 +4721,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
@@ -4739,7 +4736,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
@@ -4754,7 +4751,7 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
@@ -4769,7 +4766,7 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -4784,7 +4781,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
@@ -4799,7 +4796,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
@@ -4814,7 +4811,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -4829,7 +4826,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -4844,12 +4841,12 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="C17" s="5">
         <v>0</v>
@@ -4880,7 +4877,7 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2010</v>
       </c>
@@ -4895,7 +4892,7 @@
       <c r="K18"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2011</v>
       </c>
@@ -4910,7 +4907,7 @@
       <c r="K19"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2012</v>
       </c>
@@ -4925,7 +4922,7 @@
       <c r="K20"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2013</v>
       </c>
@@ -4940,7 +4937,7 @@
       <c r="K21"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -4955,7 +4952,7 @@
       <c r="K22"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -4970,7 +4967,7 @@
       <c r="K23"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -4985,7 +4982,7 @@
       <c r="K24"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2017</v>
       </c>
@@ -5000,7 +4997,7 @@
       <c r="K25"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2018</v>
       </c>
@@ -5015,7 +5012,7 @@
       <c r="K26"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="3"/>
@@ -5028,7 +5025,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -5043,9 +5040,9 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -5058,7 +5055,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -5073,7 +5070,7 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -5085,7 +5082,7 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -5100,7 +5097,7 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -5115,15 +5112,15 @@
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -5156,7 +5153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2010</v>
       </c>
@@ -5175,7 +5172,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2011</v>
       </c>
@@ -5194,7 +5191,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2012</v>
       </c>
@@ -5213,7 +5210,7 @@
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2013</v>
       </c>
@@ -5232,7 +5229,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2014</v>
       </c>
@@ -5251,7 +5248,7 @@
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2015</v>
       </c>
@@ -5270,7 +5267,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2016</v>
       </c>
@@ -5289,7 +5286,7 @@
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2017</v>
       </c>
@@ -5308,7 +5305,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2018</v>
       </c>
@@ -5327,7 +5324,7 @@
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2019</v>
       </c>
@@ -5346,7 +5343,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="11"/>
       <c r="C49" s="3"/>
@@ -5360,7 +5357,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
@@ -5374,12 +5371,12 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="C54" s="5">
         <v>0</v>
@@ -5412,7 +5409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2010</v>
       </c>
@@ -5427,7 +5424,7 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2011</v>
       </c>
@@ -5442,7 +5439,7 @@
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>2012</v>
       </c>
@@ -5457,7 +5454,7 @@
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>2013</v>
       </c>
@@ -5472,7 +5469,7 @@
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>2014</v>
       </c>
@@ -5487,7 +5484,7 @@
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>2015</v>
       </c>
@@ -5502,7 +5499,7 @@
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>2016</v>
       </c>
@@ -5517,7 +5514,7 @@
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>2017</v>
       </c>
@@ -5532,7 +5529,7 @@
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>2018</v>
       </c>
@@ -5547,7 +5544,7 @@
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>2019</v>
       </c>
@@ -5562,12 +5559,12 @@
       <c r="K64"/>
       <c r="L64"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="C68" s="5">
         <v>0</v>
@@ -5598,7 +5595,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>2010</v>
       </c>
@@ -5613,7 +5610,7 @@
       <c r="K69"/>
       <c r="L69"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>2011</v>
       </c>
@@ -5628,7 +5625,7 @@
       <c r="K70"/>
       <c r="L70"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2012</v>
       </c>
@@ -5643,7 +5640,7 @@
       <c r="K71"/>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2013</v>
       </c>
@@ -5658,7 +5655,7 @@
       <c r="K72"/>
       <c r="L72"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2014</v>
       </c>
@@ -5673,7 +5670,7 @@
       <c r="K73"/>
       <c r="L73"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2015</v>
       </c>
@@ -5688,7 +5685,7 @@
       <c r="K74"/>
       <c r="L74"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2016</v>
       </c>
@@ -5703,7 +5700,7 @@
       <c r="K75"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2017</v>
       </c>
@@ -5718,7 +5715,7 @@
       <c r="K76"/>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2018</v>
       </c>
@@ -5733,7 +5730,7 @@
       <c r="K77"/>
       <c r="L77"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -5746,7 +5743,7 @@
       <c r="K78"/>
       <c r="L78"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -5761,9 +5758,9 @@
       <c r="K79"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C80"/>
       <c r="D80"/>
@@ -5776,7 +5773,7 @@
       <c r="K80"/>
       <c r="L80"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -5791,7 +5788,7 @@
       <c r="K81"/>
       <c r="L81"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
@@ -5803,7 +5800,7 @@
       <c r="K82"/>
       <c r="L82"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -5818,7 +5815,7 @@
       <c r="K83"/>
       <c r="L83"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -5833,21 +5830,21 @@
       <c r="K84"/>
       <c r="L84"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="15">
         <v>0.04</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="C89" s="5">
         <v>0</v>
@@ -5880,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>2010</v>
       </c>
@@ -5895,7 +5892,7 @@
       <c r="K90"/>
       <c r="L90"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>2011</v>
       </c>
@@ -5910,7 +5907,7 @@
       <c r="K91"/>
       <c r="L91"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>2012</v>
       </c>
@@ -5925,7 +5922,7 @@
       <c r="K92"/>
       <c r="L92"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>2013</v>
       </c>
@@ -5940,7 +5937,7 @@
       <c r="K93"/>
       <c r="L93"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>2014</v>
       </c>
@@ -5955,7 +5952,7 @@
       <c r="K94"/>
       <c r="L94"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>2015</v>
       </c>
@@ -5970,7 +5967,7 @@
       <c r="K95"/>
       <c r="L95"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>2016</v>
       </c>
@@ -5985,7 +5982,7 @@
       <c r="K96"/>
       <c r="L96"/>
     </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>2017</v>
       </c>
@@ -6000,7 +5997,7 @@
       <c r="K97"/>
       <c r="L97"/>
     </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>2018</v>
       </c>
@@ -6015,7 +6012,7 @@
       <c r="K98"/>
       <c r="L98"/>
     </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>2019</v>
       </c>
@@ -6031,7 +6028,7 @@
       <c r="L99"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100"/>
@@ -6043,7 +6040,7 @@
       <c r="K100"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101"/>
@@ -6055,7 +6052,7 @@
       <c r="K101"/>
       <c r="L101"/>
     </row>
-    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C107" s="35" t="s">
         <v>15</v>
       </c>
@@ -6063,16 +6060,16 @@
       <c r="E107" s="35"/>
       <c r="F107" s="35"/>
       <c r="G107" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H107" s="35"/>
     </row>
-    <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>16</v>
@@ -6081,16 +6078,16 @@
         <v>18</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>14</v>
       </c>
@@ -6104,16 +6101,16 @@
         <v>19</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -6125,7 +6122,7 @@
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>2011</v>
       </c>
@@ -6137,7 +6134,7 @@
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>2012</v>
       </c>
@@ -6149,7 +6146,7 @@
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>2013</v>
       </c>
@@ -6161,7 +6158,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>2014</v>
       </c>
@@ -6173,7 +6170,7 @@
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>2015</v>
       </c>
@@ -6185,7 +6182,7 @@
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>2016</v>
       </c>
@@ -6197,7 +6194,7 @@
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>2017</v>
       </c>
@@ -6209,7 +6206,7 @@
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>2018</v>
       </c>
@@ -6221,7 +6218,7 @@
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>2019</v>
       </c>
@@ -6233,19 +6230,19 @@
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E121" s="13"/>
       <c r="F121" s="26"/>
       <c r="G121" s="13"/>
       <c r="H121" s="26"/>
     </row>
-    <row r="122" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -6264,31 +6261,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FB8843-27E5-2D45-B2ED-6644A70E32A0}">
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.875" style="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="12" width="10.875" style="1"/>
+    <col min="6" max="12" width="10.83203125" style="1"/>
     <col min="13" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.875" style="1"/>
-    <col min="18" max="18" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.875" style="1"/>
+    <col min="15" max="15" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="O2" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -6303,10 +6300,10 @@
       <c r="Z2" s="30"/>
       <c r="AA2" s="30"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -6339,11 +6336,11 @@
         <v>9</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="31"/>
       <c r="P3" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="33">
         <v>0</v>
@@ -6376,10 +6373,10 @@
         <v>9</v>
       </c>
       <c r="AA3" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -6415,7 +6412,7 @@
       <c r="Z4" s="30"/>
       <c r="AA4" s="34"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -6451,7 +6448,7 @@
       <c r="Z5" s="34"/>
       <c r="AA5" s="34"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
@@ -6487,7 +6484,7 @@
       <c r="Z6" s="34"/>
       <c r="AA6" s="34"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
@@ -6523,7 +6520,7 @@
       <c r="Z7" s="34"/>
       <c r="AA7" s="34"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
@@ -6559,7 +6556,7 @@
       <c r="Z8" s="34"/>
       <c r="AA8" s="34"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -6595,7 +6592,7 @@
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
@@ -6631,7 +6628,7 @@
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
@@ -6667,7 +6664,7 @@
       <c r="Z11" s="34"/>
       <c r="AA11" s="34"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -6703,7 +6700,7 @@
       <c r="Z12" s="34"/>
       <c r="AA12" s="34"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -6739,18 +6736,18 @@
       <c r="Z13" s="34"/>
       <c r="AA13" s="34"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -6783,7 +6780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2010</v>
       </c>
@@ -6801,7 +6798,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2011</v>
       </c>
@@ -6819,7 +6816,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2012</v>
       </c>
@@ -6837,7 +6834,7 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2013</v>
       </c>
@@ -6855,7 +6852,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -6873,7 +6870,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -6891,7 +6888,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -6909,7 +6906,7 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2017</v>
       </c>
@@ -6927,7 +6924,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2018</v>
       </c>
@@ -6945,7 +6942,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2019</v>
       </c>
@@ -6963,18 +6960,18 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -7007,7 +7004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2010</v>
       </c>
@@ -7023,7 +7020,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2011</v>
       </c>
@@ -7039,7 +7036,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2012</v>
       </c>
@@ -7055,7 +7052,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2013</v>
       </c>
@@ -7071,7 +7068,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2014</v>
       </c>
@@ -7087,7 +7084,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2015</v>
       </c>
@@ -7103,7 +7100,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2016</v>
       </c>
@@ -7119,7 +7116,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2017</v>
       </c>
@@ -7135,7 +7132,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2018</v>
       </c>
@@ -7151,7 +7148,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2019</v>
       </c>
@@ -7167,9 +7164,9 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="18"/>
@@ -7183,40 +7180,40 @@
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="19"/>
       <c r="G50" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>A32</f>
         <v>2010</v>
@@ -7229,7 +7226,7 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" ref="A54:A62" si="0">A33</f>
         <v>2011</v>
@@ -7242,7 +7239,7 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -7256,7 +7253,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -7270,7 +7267,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -7284,7 +7281,7 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -7298,7 +7295,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -7312,7 +7309,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -7326,7 +7323,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -7340,7 +7337,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -7361,29 +7358,29 @@
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
     </row>
-    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65"/>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="C70" s="5">
         <v>0</v>
@@ -7416,16 +7413,16 @@
         <v>9</v>
       </c>
       <c r="M70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N70" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>2010</v>
       </c>
@@ -7447,7 +7444,7 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2011</v>
       </c>
@@ -7469,7 +7466,7 @@
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>2012</v>
       </c>
@@ -7491,7 +7488,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>2013</v>
       </c>
@@ -7513,7 +7510,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>2014</v>
       </c>
@@ -7535,7 +7532,7 @@
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>2015</v>
       </c>
@@ -7557,7 +7554,7 @@
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>2016</v>
       </c>
@@ -7579,7 +7576,7 @@
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>2017</v>
       </c>
@@ -7601,7 +7598,7 @@
       <c r="N78"/>
       <c r="O78"/>
     </row>
-    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>2018</v>
       </c>
@@ -7623,7 +7620,7 @@
       <c r="N79"/>
       <c r="O79"/>
     </row>
-    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>2019</v>
       </c>
@@ -7645,12 +7642,12 @@
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N81" s="23"/>
     </row>
-    <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -7664,10 +7661,10 @@
       <c r="L82" s="10"/>
       <c r="N82" s="25"/>
     </row>
-    <row r="83" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -7693,22 +7690,22 @@
       <selection activeCell="F63" activeCellId="3" sqref="B32:K48 B62:E62 B52:F61 F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
         <v>0</v>
@@ -7741,25 +7738,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
@@ -7767,7 +7764,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
@@ -7776,7 +7773,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -7787,7 +7784,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
@@ -7798,7 +7795,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
@@ -7810,7 +7807,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -7823,7 +7820,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -7837,12 +7834,12 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5">
         <v>0</v>
@@ -7875,7 +7872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2010</v>
       </c>
@@ -7890,7 +7887,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2011</v>
       </c>
@@ -7905,7 +7902,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2012</v>
       </c>
@@ -7920,7 +7917,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2013</v>
       </c>
@@ -7935,7 +7932,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2014</v>
       </c>
@@ -7950,7 +7947,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2015</v>
       </c>
@@ -7965,7 +7962,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2016</v>
       </c>
@@ -7980,7 +7977,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2017</v>
       </c>
@@ -7995,7 +7992,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2018</v>
       </c>
@@ -8010,7 +8007,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2019</v>
       </c>
@@ -8025,12 +8022,12 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>0</v>
       </c>
@@ -8060,7 +8057,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2010</v>
       </c>
@@ -8075,7 +8072,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2011</v>
       </c>
@@ -8090,7 +8087,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2012</v>
       </c>
@@ -8105,7 +8102,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2013</v>
       </c>
@@ -8120,7 +8117,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2014</v>
       </c>
@@ -8135,7 +8132,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2015</v>
       </c>
@@ -8150,7 +8147,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2016</v>
       </c>
@@ -8165,7 +8162,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2017</v>
       </c>
@@ -8180,7 +8177,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2018</v>
       </c>
@@ -8195,7 +8192,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="3"/>
@@ -8224,7 +8221,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -8280,41 +8277,41 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>A18</f>
         <v>2010</v>
@@ -8325,7 +8322,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="24"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" ref="A53:A60" si="0">A19</f>
         <v>2011</v>
@@ -8336,7 +8333,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="24"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -8347,7 +8344,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="24"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -8358,7 +8355,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="24"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -8369,7 +8366,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="24"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -8380,7 +8377,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="24"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -8391,7 +8388,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="24"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -8402,7 +8399,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="24"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -8413,7 +8410,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="24"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>A27</f>
         <v>2019</v>
@@ -8424,13 +8421,13 @@
       <c r="E61" s="3"/>
       <c r="F61" s="24"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F63" s="25"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="B32:B40">
     <cfRule type="colorScale" priority="8">
